--- a/01_Input/00_CO Validation/Panama - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Panama - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="991" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BA7201-8505-4219-BC0B-26AA92F2B7B4}"/>
+  <xr:revisionPtr revIDLastSave="999" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{756E5F5C-1B87-470C-A445-47F627705E13}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>Project ID</t>
   </si>
@@ -122,8 +122,7 @@
     <t>Mediante este proyecto se elaboro la Hoja de Ruta Nexo Mujer y Energía liderado por la Secretaria de Energia, en la que participaron 788 personas (529 mujeres y 259 hombres) de los sectores público, privado, sociedad civil y organismos internacionales.  Esto para la segunda fase de la transición energética. Ver Resolución N.°MIPRE-2022-0010543 de 22 de marzo de 2022 – Que adopta la Hoja de Ruta Nexo Mujer y Energía en la República de Panamá.  de adjunta Revisión Sustantiva 001/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">
-00133871</t>
+    <t>00133871</t>
   </si>
   <si>
     <t>Beyond Recovery COVID19 Energy</t>
@@ -156,6 +155,10 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+00133871</t>
   </si>
   <si>
     <t>Tier</t>
@@ -487,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -552,6 +555,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -559,17 +586,15 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -580,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -669,34 +694,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,32 +731,53 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,7 +1088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1091,176 +1110,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="42">
+      <c r="A2" s="51">
         <v>91204</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="49">
         <v>4202031</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="37">
         <v>7</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="38">
         <v>16</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:19" ht="219" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="49">
         <v>473000</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="41">
         <v>0</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="76.5">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="57" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="41">
         <v>0</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="38">
         <v>1</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="1:19" ht="23.25">
       <c r="A5" s="13"/>
@@ -1286,7 +1307,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1393,7 +1414,7 @@
     </row>
     <row r="3" spans="1:13" ht="219" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>27</v>
@@ -1458,45 +1479,45 @@
     </row>
     <row r="8" spans="1:13" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:13" customFormat="1">
-      <c r="A9" s="37" t="s">
-        <v>39</v>
+      <c r="A9" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="D9" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:13" customFormat="1">
-      <c r="A10" s="37"/>
+      <c r="A10" s="60"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
@@ -1506,12 +1527,12 @@
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:13" customFormat="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="60"/>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
@@ -1521,17 +1542,17 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>46</v>
+      <c r="A12" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -1540,12 +1561,12 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:13" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="61"/>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
@@ -1555,12 +1576,12 @@
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:13" customFormat="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="61"/>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
@@ -1570,12 +1591,12 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:13" customFormat="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="61"/>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
@@ -1585,12 +1606,12 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:13" customFormat="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="61"/>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
@@ -1600,14 +1621,14 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" customFormat="1">
-      <c r="A17" s="39" t="s">
-        <v>58</v>
+      <c r="A17" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
@@ -1617,15 +1638,15 @@
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" customFormat="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="62"/>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -1634,17 +1655,17 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" customFormat="1">
-      <c r="A19" s="40" t="s">
-        <v>64</v>
+      <c r="A19" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -1653,12 +1674,12 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" customFormat="1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="63"/>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
@@ -1668,15 +1689,15 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" customFormat="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="63"/>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -1686,16 +1707,16 @@
     </row>
     <row r="22" spans="1:9" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -1705,13 +1726,13 @@
     </row>
     <row r="23" spans="1:9" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
@@ -1721,22 +1742,22 @@
       <c r="I23" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="190.5" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="A28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="172.5" customHeight="1">
-      <c r="A29" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="A29" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1798,181 +1819,181 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="37" t="s">
-        <v>39</v>
+      <c r="A2" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="37"/>
+      <c r="A3" s="60"/>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="37"/>
+      <c r="A4" s="60"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="38" t="s">
-        <v>46</v>
+      <c r="A5" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="38"/>
+      <c r="A6" s="61"/>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="38"/>
+      <c r="A7" s="61"/>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="38"/>
+      <c r="A8" s="61"/>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="38"/>
+      <c r="A9" s="61"/>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39" t="s">
-        <v>58</v>
+      <c r="A10" s="62" t="s">
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
+      <c r="A11" s="62"/>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40" t="s">
-        <v>64</v>
+      <c r="A12" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="63"/>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
+      <c r="A14" s="63"/>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1987,26 +2008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2255,14 +2256,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{990DA6FA-D161-4314-A312-86D82492EC8B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{990DA6FA-D161-4314-A312-86D82492EC8B}"/>
 </file>
--- a/01_Input/00_CO Validation/Panama - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Panama - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="999" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{756E5F5C-1B87-470C-A445-47F627705E13}"/>
+  <xr:revisionPtr revIDLastSave="1039" documentId="8_{8CAB50D8-CF81-BC4A-BCD6-641596546354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDC5996-09DD-4308-9302-F9E8F6A8ACB2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -98,13 +95,19 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>Apoyo a la Modernización de La Gestión Ambiental</t>
   </si>
   <si>
     <t>https://open.undp.org/projects/00082182</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>Number of public environmental policies, plans and/or programs approved and being implemented.</t>
@@ -119,10 +122,31 @@
 Pan-Government</t>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>Decarbonization</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
     <t>Mediante este proyecto se elaboro la Hoja de Ruta Nexo Mujer y Energía liderado por la Secretaria de Energia, en la que participaron 788 personas (529 mujeres y 259 hombres) de los sectores público, privado, sociedad civil y organismos internacionales.  Esto para la segunda fase de la transición energética. Ver Resolución N.°MIPRE-2022-0010543 de 22 de marzo de 2022 – Que adopta la Hoja de Ruta Nexo Mujer y Energía en la República de Panamá.  de adjunta Revisión Sustantiva 001/2022</t>
   </si>
   <si>
-    <t>00133871</t>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Beyond Recovery COVID19 Energy</t>
@@ -143,6 +167,9 @@
   <si>
     <t xml:space="preserve">UNDP (TRAC 4001) Donor 00012
 </t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
   <si>
     <t xml:space="preserve">Con este proyecto se instalaron 34 paneles solares en 34 hogares de la comunidad de Dos Aguas en el distrito de Capira, provincia de Panama Oeste.  Además de 1 panel solar en la Cooperativa denominada Dos Aguas Progresa e instalaciones solares en las 2 cooperativas de la comunidad de Bajo Bonito en Capira para el enfriamiento del culantro y su comercialización  
@@ -152,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">IRRF: 2.1.1.2 Country has public-private partnerships at national level to improve the enabling framework for economic diversification and green growth </t>
+  </si>
+  <si>
+    <t>Financing Model</t>
   </si>
   <si>
     <t>Comments</t>
@@ -302,22 +332,91 @@
     <t>Comments PANAMA</t>
   </si>
   <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
     <t>154 personas tienen acceso a electricidad mediante instalación de paneles solares</t>
   </si>
   <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
     <t>las 2 instalaciones solares en las 2 cooperativas de la comunidad de BAjo Bonito en Capira son para el enfriamiento del culantro</t>
   </si>
   <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
     <t>La inicitaiva ha generado una bolsa de ideas de microemprendimientos, especialemnte en las mujeres, Ej. Lavamaticos y ventas de refrescos</t>
   </si>
   <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
+  </si>
+  <si>
     <t>Se realizó capacitación a las comunidades y las Cooperartivas de las Comunidades de Bajo Bonito y Dos Aguas</t>
   </si>
   <si>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
+  </si>
+  <si>
     <t>En este momento se está elaborando una publiciación y videos para promover la solarización en areas rurales, especialmente la transformación de la vida de las mujeres y niñas</t>
   </si>
   <si>
     <t>Panama desarrollo una Estrategia de Energia distribuida y una estrategia de acceso universal.  Asi se consume la electridadque se produce y el resto se puede vender.</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
+  </si>
+  <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
 </sst>
 </file>
@@ -327,12 +426,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,6 +532,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -490,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -600,20 +712,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,34 +750,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -661,19 +786,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -682,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -691,9 +816,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -703,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -712,20 +837,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,10 +865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -758,26 +883,63 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,16 +1246,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27734E48-0108-406A-9C6A-D85F55A62A02}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="11" customWidth="1"/>
@@ -1104,12 +1266,20 @@
     <col min="9" max="9" width="44.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="36.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="46.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="12" max="12" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="5"/>
+    <col min="17" max="17" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75">
+    <row r="1" spans="1:27">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1143,49 +1313,55 @@
       <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="90" customHeight="1">
+      <c r="T1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="90" customHeight="1">
       <c r="A2" s="51">
         <v>91204</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="49">
         <v>4202031</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="37">
         <v>7</v>
@@ -1194,41 +1370,64 @@
         <v>16</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="40"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
+      <c r="L2" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>30</v>
+      </c>
       <c r="S2" s="40"/>
-    </row>
-    <row r="3" spans="1:19" ht="219" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>26</v>
+      <c r="T2" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="40"/>
+      <c r="W2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="219" customHeight="1">
+      <c r="A3" s="54">
+        <v>133871</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D3" s="49">
         <v>473000</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G3" s="41">
         <v>0</v>
@@ -1237,33 +1436,48 @@
         <v>1</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K3" s="36"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
+      <c r="L3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="59"/>
+      <c r="U3" s="40"/>
+      <c r="W3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" ht="76.5">
+      <c r="AA3" s="59"/>
+    </row>
+    <row r="4" spans="1:27" ht="76.5">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="57"/>
       <c r="E4" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G4" s="41">
         <v>0</v>
@@ -1274,27 +1488,85 @@
       <c r="I4" s="42"/>
       <c r="J4" s="37"/>
       <c r="K4" s="43"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" ht="23.25">
+      <c r="L4" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="40"/>
+      <c r="T4" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="40"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="23.25">
       <c r="A5" s="13"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:27">
       <c r="A6" s="12"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:27">
       <c r="I7" s="16"/>
     </row>
   </sheetData>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA4" xr:uid="{35B70A4E-810F-4CAC-95E8-38854D0478A8}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z4" xr:uid="{F67F4A54-E5D8-4BB3-A33F-E3D8B95CDB42}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{8C42B982-9C29-4594-B032-0ABA3EECA815}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{7442DB9E-4D4A-45E4-89B9-6838C694BA38}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{88A297EB-30B5-4466-B63C-25EE6935F44C}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{D2353356-F12D-4551-A11A-0DDB1BC7A037}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{BED60EAA-682F-477B-9CE9-738B37C2A7ED}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{444C47B2-1212-49D1-ADAC-D631892304A8}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{62B0D996-1AA4-4E3C-AB0F-FA1F267807A1}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{5129B415-BBCC-4B80-A609-3039B829F642}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{BB08BA01-6B4F-40A8-BD39-55A958E12D83}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7259A699-C3EB-476C-9286-26AEE051F57C}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4BF34B45-F01C-4856-9E7F-82627F42BD13}"/>
@@ -1305,7 +1577,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B11A4EC-99C3-4AE6-8605-AECE7B12E552}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1373,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="90" customHeight="1">
@@ -1381,19 +1653,19 @@
         <v>91204</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="11">
         <v>4202031</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="29">
         <v>7</v>
@@ -1402,34 +1674,34 @@
         <v>16</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="219" customHeight="1">
       <c r="A3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="11">
         <v>473000</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -1438,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -1452,7 +1724,7 @@
     <row r="4" spans="1:13" ht="76.5">
       <c r="E4" s="29"/>
       <c r="F4" s="32" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -1479,45 +1751,45 @@
     </row>
     <row r="8" spans="1:13" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:13" customFormat="1">
-      <c r="A9" s="60" t="s">
-        <v>40</v>
+      <c r="A9" s="70" t="s">
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:13" customFormat="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="70"/>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
@@ -1527,12 +1799,12 @@
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:13" customFormat="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="70"/>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
@@ -1542,17 +1814,17 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>47</v>
+      <c r="A12" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -1561,12 +1833,12 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:13" customFormat="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
@@ -1576,12 +1848,12 @@
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:13" customFormat="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
@@ -1591,12 +1863,12 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:13" customFormat="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
@@ -1606,12 +1878,12 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:13" customFormat="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
@@ -1621,14 +1893,14 @@
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" customFormat="1">
-      <c r="A17" s="62" t="s">
-        <v>59</v>
+      <c r="A17" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
@@ -1638,15 +1910,15 @@
       <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" customFormat="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -1655,17 +1927,17 @@
       <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" customFormat="1">
-      <c r="A19" s="63" t="s">
-        <v>65</v>
+      <c r="A19" s="73" t="s">
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -1674,12 +1946,12 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" customFormat="1">
-      <c r="A20" s="63"/>
+      <c r="A20" s="73"/>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
@@ -1689,15 +1961,15 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" customFormat="1">
-      <c r="A21" s="63"/>
+      <c r="A21" s="73"/>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -1707,16 +1979,16 @@
     </row>
     <row r="22" spans="1:9" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -1726,13 +1998,13 @@
     </row>
     <row r="23" spans="1:9" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
@@ -1742,22 +2014,22 @@
       <c r="I23" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="190.5" customHeight="1">
-      <c r="A28" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="172.5" customHeight="1">
-      <c r="A29" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
+      <c r="A29" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1779,7 +2051,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -1803,211 +2075,242 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75">
+      <c r="A2" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B3" s="62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75">
+      <c r="A4" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75">
+      <c r="A6" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75">
+      <c r="A7" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75">
+      <c r="A8" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75">
+      <c r="A9" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75">
+      <c r="A10" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75">
+      <c r="A12" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="75" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B20" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="60"/>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="60"/>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="61"/>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="61"/>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="61"/>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="61"/>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="62"/>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="63"/>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="63"/>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="75" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
+      <c r="B22" s="76" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2256,28 +2559,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{990DA6FA-D161-4314-A312-86D82492EC8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2285,5 +2568,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{990DA6FA-D161-4314-A312-86D82492EC8B}"/>
 </file>